--- a/resource/planilha_teste.xlsx
+++ b/resource/planilha_teste.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JS\PycharmProjects\xslx_to_sql\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JS\PycharmProjects\xslx_to_sql\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -406,7 +406,7 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,27 +421,22 @@
     <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">

--- a/resource/planilha_teste.xlsx
+++ b/resource/planilha_teste.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JS\PycharmProjects\xslx_to_sql\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projetos\xlsx_to_sql\xlsx_to_sql\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="2835" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -403,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A2:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C1" sqref="A1:XFD1"/>
@@ -421,64 +421,38 @@
     <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="2" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1">
-        <v>44094</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="5"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44094</v>
+      </c>
+      <c r="E3" s="2">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>204</v>
-      </c>
-      <c r="D3" s="1">
-        <v>44095</v>
-      </c>
-      <c r="E3" s="2">
-        <v>4</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="2"/>
@@ -492,19 +466,19 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>57</v>
+        <v>204</v>
       </c>
       <c r="D4" s="1">
-        <v>44096</v>
+        <v>44095</v>
       </c>
       <c r="E4" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="2"/>
@@ -518,19 +492,19 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1">
-        <v>44097</v>
+        <v>44096</v>
       </c>
       <c r="E5" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="2"/>
@@ -544,19 +518,19 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D6" s="1">
-        <v>44098</v>
+        <v>44097</v>
       </c>
       <c r="E6" s="2">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="2"/>
@@ -570,19 +544,19 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1">
-        <v>44099</v>
+        <v>44098</v>
       </c>
       <c r="E7" s="2">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="2"/>
@@ -596,19 +570,19 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1">
-        <v>44100</v>
+        <v>44099</v>
       </c>
       <c r="E8" s="2">
-        <v>3.5</v>
+        <v>14</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="2"/>
@@ -622,19 +596,19 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="D9" s="1">
-        <v>44101</v>
+        <v>44100</v>
       </c>
       <c r="E9" s="2">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="2"/>
@@ -648,19 +622,19 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>343</v>
+        <v>87</v>
       </c>
       <c r="D10" s="1">
-        <v>44102</v>
+        <v>44101</v>
       </c>
       <c r="E10" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="2"/>
@@ -674,19 +648,19 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>343</v>
       </c>
       <c r="D11" s="1">
-        <v>44103</v>
+        <v>44102</v>
       </c>
       <c r="E11" s="2">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="2"/>
@@ -698,8 +672,34 @@
       <c r="S11" s="4"/>
       <c r="T11" s="5"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I14" s="6"/>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44103</v>
+      </c>
+      <c r="E12" s="2">
+        <v>19</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="2"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="5"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
